--- a/Federal/f1040-2021-combined.xlsx
+++ b/Federal/f1040-2021-combined.xlsx
@@ -3094,64 +3094,106 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3159,74 +3201,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3234,58 +3259,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3653,22 +3653,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
+      <c r="A1" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3695,11 +3695,11 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3723,11 +3723,11 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
@@ -3751,11 +3751,11 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
@@ -3779,11 +3779,11 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
@@ -3807,11 +3807,11 @@
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
@@ -3835,11 +3835,11 @@
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="6" t="s">
         <v>23</v>
       </c>
@@ -3852,11 +3852,11 @@
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3886,11 +3886,11 @@
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
@@ -3900,32 +3900,32 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
       <c r="E18" s="5"/>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="5"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
     </row>
@@ -3933,11 +3933,11 @@
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3978,11 +3978,11 @@
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
       <c r="E24" s="6" t="s">
         <v>40</v>
       </c>
@@ -3992,11 +3992,11 @@
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
       <c r="E25" s="6" t="s">
         <v>42</v>
       </c>
@@ -4009,11 +4009,11 @@
       <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="17" t="s">
         <v>44</v>
       </c>
@@ -4023,22 +4023,22 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="177"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
@@ -4048,11 +4048,11 @@
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
       <c r="E30" s="6" t="s">
         <v>49</v>
       </c>
@@ -4065,11 +4065,11 @@
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
       <c r="E31" s="6" t="s">
         <v>51</v>
       </c>
@@ -4082,11 +4082,11 @@
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
       <c r="E32" s="6" t="s">
         <v>53</v>
       </c>
@@ -4096,11 +4096,11 @@
       <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
       <c r="E33" s="6" t="s">
         <v>55</v>
       </c>
@@ -4113,11 +4113,11 @@
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
       <c r="E34" s="6" t="s">
         <v>57</v>
       </c>
@@ -4130,11 +4130,11 @@
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
       <c r="E35" s="6" t="s">
         <v>59</v>
       </c>
@@ -4147,11 +4147,11 @@
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
       <c r="E36" s="6" t="s">
         <v>61</v>
       </c>
@@ -4164,11 +4164,11 @@
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
       <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
@@ -4226,11 +4226,11 @@
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
       <c r="E41" s="6" t="s">
         <v>71</v>
       </c>
@@ -4243,11 +4243,11 @@
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
       <c r="E42" s="6" t="s">
         <v>73</v>
       </c>
@@ -4358,11 +4358,11 @@
       <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
       <c r="E50" s="6" t="s">
         <v>89</v>
       </c>
@@ -4375,11 +4375,11 @@
       <c r="A51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="174" t="s">
+      <c r="B51" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
       <c r="E51" s="6" t="s">
         <v>91</v>
       </c>
@@ -4389,12 +4389,12 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="178" t="s">
+      <c r="A52" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="178"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
       <c r="E52" s="5"/>
       <c r="F52" s="14"/>
     </row>
@@ -4402,11 +4402,11 @@
       <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
       <c r="E53" s="6" t="s">
         <v>94</v>
       </c>
@@ -4419,11 +4419,11 @@
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
       <c r="E54" s="6" t="s">
         <v>65</v>
       </c>
@@ -4450,12 +4450,12 @@
       <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="178"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
+      <c r="B56" s="172"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="172"/>
       <c r="E56" s="8"/>
       <c r="F56" s="19"/>
     </row>
@@ -4463,11 +4463,11 @@
       <c r="A57" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
       <c r="E57" s="6" t="s">
         <v>100</v>
       </c>
@@ -4492,6 +4492,36 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B50:D50"/>
@@ -4499,36 +4529,6 @@
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4552,32 +4552,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
     </row>
     <row r="2" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
     </row>
     <row r="4" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
     </row>
     <row r="5" spans="1:5" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,8 +4590,8 @@
       <c r="C6" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="182"/>
-      <c r="E6" s="183"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="165" t="s">
@@ -4603,8 +4603,8 @@
       <c r="C7" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" s="185"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
     </row>
     <row r="8" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="165" t="s">
@@ -4616,8 +4616,8 @@
       <c r="C8" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180"/>
     </row>
     <row r="9" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="165" t="s">
@@ -4629,8 +4629,8 @@
       <c r="C9" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
     </row>
     <row r="10" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="165" t="s">
@@ -4642,8 +4642,8 @@
       <c r="C10" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
     </row>
     <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="165" t="s">
@@ -4655,8 +4655,8 @@
       <c r="C11" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
     </row>
     <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="165" t="s">
@@ -4668,8 +4668,8 @@
       <c r="C12" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
     </row>
     <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="165" t="s">
@@ -4681,8 +4681,8 @@
       <c r="C13" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="184"/>
-      <c r="E13" s="185"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
     </row>
     <row r="14" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="167" t="s">
@@ -4692,8 +4692,8 @@
       <c r="C14" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="187"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
     </row>
     <row r="15" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="165" t="s">
@@ -4705,8 +4705,8 @@
       <c r="C15" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="185"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="180"/>
     </row>
     <row r="16" spans="1:5" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="165" t="s">
@@ -4718,8 +4718,8 @@
       <c r="C16" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="185"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="180"/>
     </row>
     <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="165" t="s">
@@ -4775,8 +4775,8 @@
         <f>"13."</f>
         <v>13.</v>
       </c>
-      <c r="D21" s="184"/>
-      <c r="E21" s="185"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="180"/>
     </row>
     <row r="22" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="165" t="s">
@@ -4788,8 +4788,8 @@
       <c r="C22" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="185"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="180"/>
     </row>
     <row r="23" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="165" t="s">
@@ -4814,8 +4814,8 @@
       <c r="C24" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="185"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
     </row>
     <row r="25" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="165" t="s">
@@ -4827,8 +4827,8 @@
       <c r="C25" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="185"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="180"/>
     </row>
     <row r="26" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="165" t="s">
@@ -4840,8 +4840,8 @@
       <c r="C26" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="185"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="180"/>
     </row>
     <row r="27" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="165" t="s">
@@ -4853,8 +4853,8 @@
       <c r="C27" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="184"/>
-      <c r="E27" s="185"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="180"/>
     </row>
     <row r="28" spans="1:5" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="169" t="s">
@@ -4866,11 +4866,26 @@
       <c r="C28" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="189"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
@@ -4879,21 +4894,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4909,7 +4909,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4921,14 +4921,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="191" t="s">
@@ -4942,11 +4942,11 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4956,11 +4956,11 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
@@ -5321,11 +5321,11 @@
       <c r="A30" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="193" t="s">
+      <c r="B30" s="190" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
       <c r="E30" s="17" t="s">
         <v>195</v>
       </c>
@@ -5346,11 +5346,11 @@
       <c r="A32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
       <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
@@ -5360,11 +5360,11 @@
       <c r="A33" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="173"/>
       <c r="E33" s="6" t="s">
         <v>199</v>
       </c>
@@ -5374,11 +5374,11 @@
       <c r="A34" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
       <c r="E34" s="6" t="s">
         <v>40</v>
       </c>
@@ -5388,11 +5388,11 @@
       <c r="A35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
       <c r="E35" s="6" t="s">
         <v>42</v>
       </c>
@@ -5402,25 +5402,28 @@
       <c r="A36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
       <c r="E36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <f>'F1040 SSE'!D32</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
       <c r="E37" s="6" t="s">
         <v>47</v>
       </c>
@@ -5430,11 +5433,11 @@
       <c r="A38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
       <c r="E38" s="6" t="s">
         <v>49</v>
       </c>
@@ -5444,11 +5447,11 @@
       <c r="A39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
       <c r="E39" s="6" t="s">
         <v>51</v>
       </c>
@@ -5458,11 +5461,11 @@
       <c r="A40" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
       <c r="E40" s="6" t="s">
         <v>207</v>
       </c>
@@ -5472,11 +5475,11 @@
       <c r="A41" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="173" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
       <c r="E41" s="6" t="s">
         <v>55</v>
       </c>
@@ -5486,11 +5489,11 @@
       <c r="A42" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
       <c r="E42" s="6" t="s">
         <v>57</v>
       </c>
@@ -5500,11 +5503,11 @@
       <c r="A43" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
       <c r="E43" s="6" t="s">
         <v>59</v>
       </c>
@@ -5514,23 +5517,23 @@
       <c r="A44" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="174"/>
-      <c r="D44" s="174"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
       <c r="E44" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="175" t="s">
+      <c r="A45" s="177" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="5"/>
       <c r="F45" s="14"/>
     </row>
@@ -5706,11 +5709,11 @@
       <c r="A58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="173" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
       <c r="E58" s="6" t="s">
         <v>238</v>
       </c>
@@ -5723,11 +5726,11 @@
       <c r="A59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="193" t="s">
+      <c r="B59" s="190" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="190"/>
       <c r="E59" s="17" t="s">
         <v>73</v>
       </c>
@@ -5738,6 +5741,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
@@ -5746,26 +5769,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5781,7 +5784,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5793,12 +5796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
@@ -5811,12 +5814,12 @@
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="196" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
     </row>
@@ -5824,11 +5827,11 @@
       <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="198" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
       <c r="E4" s="40" t="s">
         <v>1</v>
       </c>
@@ -5838,11 +5841,11 @@
       <c r="A5" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="195" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
       <c r="E5" s="44" t="s">
         <v>244</v>
       </c>
@@ -5852,11 +5855,11 @@
       <c r="A6" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="194" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="47" t="s">
         <v>151</v>
       </c>
@@ -5874,12 +5877,12 @@
       <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="197" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
     </row>
@@ -5887,15 +5890,18 @@
       <c r="A9" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="41">
+        <f>'F1040 SSE'!F31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
@@ -5929,11 +5935,11 @@
       <c r="A12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="195" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="44" t="s">
         <v>21</v>
       </c>
@@ -5946,11 +5952,11 @@
       <c r="A13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
       <c r="E13" s="44" t="s">
         <v>23</v>
       </c>
@@ -5960,11 +5966,11 @@
       <c r="A14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="44" t="s">
         <v>25</v>
       </c>
@@ -5974,11 +5980,11 @@
       <c r="A15" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="195" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="44" t="s">
         <v>195</v>
       </c>
@@ -5988,11 +5994,11 @@
       <c r="A16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="195" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="44" t="s">
         <v>29</v>
       </c>
@@ -6002,11 +6008,11 @@
       <c r="A17" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="195" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
       <c r="E17" s="44" t="s">
         <v>199</v>
       </c>
@@ -6016,11 +6022,11 @@
       <c r="A18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="195" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="44" t="s">
         <v>40</v>
       </c>
@@ -6030,11 +6036,11 @@
       <c r="A19" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="195" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="44" t="s">
         <v>42</v>
       </c>
@@ -6044,11 +6050,11 @@
       <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="195" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="196"/>
-      <c r="D20" s="196"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="44" t="s">
         <v>44</v>
       </c>
@@ -6058,23 +6064,23 @@
       <c r="A21" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="194" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
       <c r="E21" s="47" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="196" t="s">
         <v>261</v>
       </c>
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
     </row>
@@ -6346,11 +6352,11 @@
       <c r="A42" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="196" t="s">
+      <c r="B42" s="195" t="s">
         <v>299</v>
       </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
       <c r="E42" s="44" t="s">
         <v>51</v>
       </c>
@@ -6363,11 +6369,11 @@
       <c r="A43" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="196" t="s">
+      <c r="B43" s="195" t="s">
         <v>300</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="D43" s="196"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
       <c r="E43" s="44" t="s">
         <v>53</v>
       </c>
@@ -6391,11 +6397,11 @@
       <c r="A45" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="197" t="s">
+      <c r="B45" s="194" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="197"/>
-      <c r="D45" s="197"/>
+      <c r="C45" s="194"/>
+      <c r="D45" s="194"/>
       <c r="E45" s="47" t="s">
         <v>57</v>
       </c>
@@ -6406,27 +6412,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6454,32 +6460,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="206" t="s">
         <v>499</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="203" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="201" t="s">
+      <c r="B3" s="204" t="s">
         <v>501</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6489,11 +6495,11 @@
       <c r="A4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="199" t="s">
         <v>502</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
       <c r="E4" s="6" t="s">
         <v>244</v>
       </c>
@@ -6503,11 +6509,11 @@
       <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="199" t="s">
         <v>503</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
       <c r="E5" s="6" t="s">
         <v>151</v>
       </c>
@@ -6517,11 +6523,11 @@
       <c r="A6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="199" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="6" t="s">
         <v>153</v>
       </c>
@@ -6531,23 +6537,23 @@
       <c r="A7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="199" t="s">
         <v>505</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
       <c r="E7" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="205" t="s">
         <v>506</v>
       </c>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="111"/>
       <c r="F8" s="112"/>
     </row>
@@ -6737,11 +6743,11 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="199" t="s">
         <v>531</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
       <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
@@ -6754,11 +6760,11 @@
       <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="201" t="s">
         <v>532</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="17" t="s">
         <v>23</v>
       </c>
@@ -6768,32 +6774,32 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="206" t="s">
+      <c r="A25" s="202" t="s">
         <v>533</v>
       </c>
-      <c r="B25" s="206"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="203" t="s">
         <v>534</v>
       </c>
-      <c r="B26" s="200"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="201" t="s">
+      <c r="B27" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="2" t="s">
         <v>25</v>
       </c>
@@ -6803,11 +6809,11 @@
       <c r="A28" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="202" t="s">
+      <c r="B28" s="199" t="s">
         <v>536</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
       <c r="E28" s="6" t="s">
         <v>195</v>
       </c>
@@ -6817,11 +6823,11 @@
       <c r="A29" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="199" t="s">
         <v>537</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
       <c r="E29" s="6" t="s">
         <v>29</v>
       </c>
@@ -6831,23 +6837,23 @@
       <c r="A30" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="202" t="s">
+      <c r="B30" s="199" t="s">
         <v>538</v>
       </c>
-      <c r="C30" s="202"/>
-      <c r="D30" s="202"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
       <c r="E30" s="6" t="s">
         <v>199</v>
       </c>
       <c r="F30" s="110"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="205" t="s">
+      <c r="A31" s="200" t="s">
         <v>539</v>
       </c>
-      <c r="B31" s="205"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="205"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
       <c r="E31" s="111"/>
       <c r="F31" s="112"/>
     </row>
@@ -6981,11 +6987,11 @@
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="202" t="s">
+      <c r="B41" s="199" t="s">
         <v>555</v>
       </c>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
@@ -6998,11 +7004,11 @@
       <c r="A42" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="204" t="s">
+      <c r="B42" s="201" t="s">
         <v>556</v>
       </c>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201"/>
       <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
@@ -7013,6 +7019,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="B41:D41"/>
@@ -7022,16 +7038,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7064,74 +7070,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="221" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="222" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="222" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="213" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="213" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
@@ -7160,15 +7166,15 @@
       <c r="A8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="207" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
       <c r="I8" s="64" t="s">
         <v>3</v>
       </c>
@@ -7180,15 +7186,15 @@
       <c r="A9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="211" t="s">
+      <c r="B9" s="207" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
       <c r="I9" s="64" t="s">
         <v>5</v>
       </c>
@@ -7200,15 +7206,15 @@
       <c r="A10" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="207" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
       <c r="I10" s="64" t="s">
         <v>311</v>
       </c>
@@ -7220,17 +7226,17 @@
       <c r="A11" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="207" t="s">
         <v>314</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
       <c r="K11" s="64" t="s">
         <v>313</v>
       </c>
@@ -7243,17 +7249,17 @@
       <c r="A12" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="207" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
       <c r="K12" s="64" t="s">
         <v>151</v>
       </c>
@@ -7266,15 +7272,15 @@
       <c r="A13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="207" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
       <c r="I13" s="64" t="s">
         <v>11</v>
       </c>
@@ -7286,15 +7292,15 @@
       <c r="A14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="207" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="211"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
       <c r="I14" s="64" t="s">
         <v>13</v>
       </c>
@@ -7306,15 +7312,15 @@
       <c r="A15" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="211" t="s">
+      <c r="B15" s="207" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
       <c r="I15" s="64" t="s">
         <v>318</v>
       </c>
@@ -7329,17 +7335,17 @@
       <c r="A16" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="207" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
       <c r="K16" s="64" t="s">
         <v>155</v>
       </c>
@@ -7352,15 +7358,15 @@
       <c r="A17" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="207" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
       <c r="I17" s="69" t="s">
         <v>157</v>
       </c>
@@ -7372,17 +7378,17 @@
       <c r="A18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="211" t="s">
+      <c r="B18" s="207" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="211"/>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207"/>
       <c r="K18" s="64" t="s">
         <v>21</v>
       </c>
@@ -7395,17 +7401,17 @@
       <c r="A19" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="207" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
       <c r="K19" s="64" t="s">
         <v>23</v>
       </c>
@@ -7418,32 +7424,32 @@
       <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="211" t="s">
+      <c r="B20" s="207" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
-      <c r="J20" s="211"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
       <c r="K20" s="64" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="68"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="220" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
@@ -7451,15 +7457,15 @@
       <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="220" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="212"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
@@ -7470,17 +7476,17 @@
       <c r="A23" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="211" t="s">
+      <c r="B23" s="207" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
       <c r="K23" s="64" t="s">
         <v>195</v>
       </c>
@@ -7490,50 +7496,50 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="219" t="s">
         <v>328</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
       <c r="K24" s="66"/>
       <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="213" t="s">
+      <c r="A25" s="219" t="s">
         <v>329</v>
       </c>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
       <c r="K25" s="66"/>
       <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="219" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
       <c r="K26" s="66"/>
       <c r="L26" s="67"/>
     </row>
@@ -7541,17 +7547,17 @@
       <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="211" t="s">
+      <c r="B27" s="207" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="207"/>
       <c r="K27" s="64" t="s">
         <v>29</v>
       </c>
@@ -7564,17 +7570,17 @@
       <c r="A28" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="211" t="s">
+      <c r="B28" s="207" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="211"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
       <c r="K28" s="64" t="s">
         <v>199</v>
       </c>
@@ -7584,18 +7590,18 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="219" t="s">
         <v>333</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
       <c r="K29" s="66"/>
       <c r="L29" s="67"/>
     </row>
@@ -7603,15 +7609,15 @@
       <c r="A30" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="211" t="s">
+      <c r="B30" s="207" t="s">
         <v>335</v>
       </c>
-      <c r="C30" s="211"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
       <c r="I30" s="64" t="s">
         <v>334</v>
       </c>
@@ -7623,15 +7629,15 @@
       <c r="A31" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="208" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
       <c r="I31" s="73" t="s">
         <v>336</v>
       </c>
@@ -7640,36 +7646,36 @@
       <c r="L31" s="76"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="214" t="s">
         <v>338</v>
       </c>
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="214"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="216" t="s">
+      <c r="A34" s="215" t="s">
         <v>339</v>
       </c>
-      <c r="B34" s="216"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="216"/>
-      <c r="L34" s="216"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
@@ -7698,17 +7704,17 @@
       <c r="A36" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="207" t="s">
         <v>343</v>
       </c>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
       <c r="K36" s="64" t="s">
         <v>342</v>
       </c>
@@ -7721,17 +7727,17 @@
       <c r="A37" s="63" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="211" t="s">
+      <c r="B37" s="207" t="s">
         <v>345</v>
       </c>
-      <c r="C37" s="211"/>
-      <c r="D37" s="211"/>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211"/>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="211"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
       <c r="K37" s="64" t="s">
         <v>344</v>
       </c>
@@ -7744,17 +7750,17 @@
       <c r="A38" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="207" t="s">
         <v>347</v>
       </c>
-      <c r="C38" s="211"/>
-      <c r="D38" s="211"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
       <c r="K38" s="64" t="s">
         <v>346</v>
       </c>
@@ -7767,17 +7773,17 @@
       <c r="A39" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="211" t="s">
+      <c r="B39" s="207" t="s">
         <v>349</v>
       </c>
-      <c r="C39" s="211"/>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
       <c r="K39" s="64" t="s">
         <v>348</v>
       </c>
@@ -7790,17 +7796,17 @@
       <c r="A40" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="B40" s="211" t="s">
+      <c r="B40" s="207" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="211"/>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="211"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
       <c r="K40" s="64" t="s">
         <v>350</v>
       </c>
@@ -7810,17 +7816,17 @@
       <c r="A41" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="B41" s="211" t="s">
+      <c r="B41" s="207" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="211"/>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="211"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
       <c r="K41" s="64" t="s">
         <v>352</v>
       </c>
@@ -7833,17 +7839,17 @@
       <c r="A42" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="211" t="s">
+      <c r="B42" s="207" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="211"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="211"/>
-      <c r="F42" s="211"/>
-      <c r="G42" s="211"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
       <c r="K42" s="64" t="s">
         <v>354</v>
       </c>
@@ -7856,17 +7862,17 @@
       <c r="A43" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="B43" s="214" t="s">
+      <c r="B43" s="208" t="s">
         <v>357</v>
       </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="214"/>
-      <c r="I43" s="214"/>
-      <c r="J43" s="214"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="208"/>
+      <c r="F43" s="208"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="208"/>
       <c r="K43" s="73" t="s">
         <v>356</v>
       </c>
@@ -7887,20 +7893,20 @@
       <c r="G46" s="217"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="214" t="s">
         <v>359</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
-      <c r="L48" s="215"/>
+      <c r="B48" s="214"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="214"/>
+      <c r="I48" s="214"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="214"/>
+      <c r="L48" s="214"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="218" t="s">
@@ -7922,17 +7928,17 @@
       <c r="A50" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="B50" s="211" t="s">
+      <c r="B50" s="207" t="s">
         <v>362</v>
       </c>
-      <c r="C50" s="211"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="211"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
       <c r="K50" s="64" t="s">
         <v>361</v>
       </c>
@@ -7945,17 +7951,17 @@
       <c r="A51" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="B51" s="211" t="s">
+      <c r="B51" s="207" t="s">
         <v>364</v>
       </c>
-      <c r="C51" s="211"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="211"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="211"/>
-      <c r="I51" s="211"/>
-      <c r="J51" s="211"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="207"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="207"/>
+      <c r="H51" s="207"/>
+      <c r="I51" s="207"/>
+      <c r="J51" s="207"/>
       <c r="K51" s="64" t="s">
         <v>363</v>
       </c>
@@ -7965,84 +7971,84 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="211" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="219"/>
-      <c r="C52" s="219"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="219"/>
-      <c r="K52" s="219"/>
-      <c r="L52" s="219"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="211"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="211"/>
+      <c r="J52" s="211"/>
+      <c r="K52" s="211"/>
+      <c r="L52" s="211"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="219" t="s">
+      <c r="A53" s="211" t="s">
         <v>366</v>
       </c>
-      <c r="B53" s="219"/>
-      <c r="C53" s="219"/>
-      <c r="D53" s="219"/>
-      <c r="E53" s="219"/>
-      <c r="F53" s="219"/>
-      <c r="G53" s="219"/>
-      <c r="H53" s="219"/>
-      <c r="I53" s="219"/>
-      <c r="J53" s="219"/>
-      <c r="K53" s="219"/>
-      <c r="L53" s="219"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="211"/>
+      <c r="F53" s="211"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="211"/>
+      <c r="J53" s="211"/>
+      <c r="K53" s="211"/>
+      <c r="L53" s="211"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="219" t="s">
+      <c r="A54" s="211" t="s">
         <v>367</v>
       </c>
-      <c r="B54" s="219"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="219"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="219"/>
-      <c r="L54" s="219"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="211"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="211"/>
+      <c r="F54" s="211"/>
+      <c r="G54" s="211"/>
+      <c r="H54" s="211"/>
+      <c r="I54" s="211"/>
+      <c r="J54" s="211"/>
+      <c r="K54" s="211"/>
+      <c r="L54" s="211"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="219" t="s">
+      <c r="A55" s="211" t="s">
         <v>368</v>
       </c>
-      <c r="B55" s="219"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="219"/>
-      <c r="G55" s="219"/>
-      <c r="H55" s="219"/>
-      <c r="I55" s="219"/>
-      <c r="J55" s="219"/>
-      <c r="K55" s="219"/>
-      <c r="L55" s="219"/>
+      <c r="B55" s="211"/>
+      <c r="C55" s="211"/>
+      <c r="D55" s="211"/>
+      <c r="E55" s="211"/>
+      <c r="F55" s="211"/>
+      <c r="G55" s="211"/>
+      <c r="H55" s="211"/>
+      <c r="I55" s="211"/>
+      <c r="J55" s="211"/>
+      <c r="K55" s="211"/>
+      <c r="L55" s="211"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="B56" s="211" t="s">
+      <c r="B56" s="207" t="s">
         <v>370</v>
       </c>
-      <c r="C56" s="211"/>
-      <c r="D56" s="211"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="207"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="207"/>
+      <c r="J56" s="207"/>
       <c r="K56" s="64" t="s">
         <v>369</v>
       </c>
@@ -8055,17 +8061,17 @@
       <c r="A57" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="B57" s="211" t="s">
+      <c r="B57" s="207" t="s">
         <v>372</v>
       </c>
-      <c r="C57" s="211"/>
-      <c r="D57" s="211"/>
-      <c r="E57" s="211"/>
-      <c r="F57" s="211"/>
-      <c r="G57" s="211"/>
-      <c r="H57" s="211"/>
-      <c r="I57" s="211"/>
-      <c r="J57" s="211"/>
+      <c r="C57" s="207"/>
+      <c r="D57" s="207"/>
+      <c r="E57" s="207"/>
+      <c r="F57" s="207"/>
+      <c r="G57" s="207"/>
+      <c r="H57" s="207"/>
+      <c r="I57" s="207"/>
+      <c r="J57" s="207"/>
       <c r="K57" s="64" t="s">
         <v>371</v>
       </c>
@@ -8078,53 +8084,53 @@
       <c r="A58" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="B58" s="211" t="s">
+      <c r="B58" s="207" t="s">
         <v>351</v>
       </c>
-      <c r="C58" s="211"/>
-      <c r="D58" s="211"/>
-      <c r="E58" s="211"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="211"/>
-      <c r="H58" s="211"/>
-      <c r="I58" s="211"/>
-      <c r="J58" s="211"/>
+      <c r="C58" s="207"/>
+      <c r="D58" s="207"/>
+      <c r="E58" s="207"/>
+      <c r="F58" s="207"/>
+      <c r="G58" s="207"/>
+      <c r="H58" s="207"/>
+      <c r="I58" s="207"/>
+      <c r="J58" s="207"/>
       <c r="K58" s="64" t="s">
         <v>373</v>
       </c>
       <c r="L58" s="68"/>
     </row>
     <row r="59" spans="1:12" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="220" t="s">
+      <c r="A59" s="216" t="s">
         <v>374</v>
       </c>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="220"/>
-      <c r="J59" s="220"/>
-      <c r="K59" s="220"/>
-      <c r="L59" s="220"/>
+      <c r="B59" s="216"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="216"/>
+      <c r="F59" s="216"/>
+      <c r="G59" s="216"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="216"/>
+      <c r="J59" s="216"/>
+      <c r="K59" s="216"/>
+      <c r="L59" s="216"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B60" s="211" t="s">
+      <c r="B60" s="207" t="s">
         <v>376</v>
       </c>
-      <c r="C60" s="211"/>
-      <c r="D60" s="211"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="211"/>
-      <c r="J60" s="211"/>
+      <c r="C60" s="207"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="207"/>
+      <c r="F60" s="207"/>
+      <c r="G60" s="207"/>
+      <c r="H60" s="207"/>
+      <c r="I60" s="207"/>
+      <c r="J60" s="207"/>
       <c r="K60" s="64" t="s">
         <v>375</v>
       </c>
@@ -8137,17 +8143,17 @@
       <c r="A61" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B61" s="211" t="s">
+      <c r="B61" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="C61" s="211"/>
-      <c r="D61" s="211"/>
-      <c r="E61" s="211"/>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="211"/>
-      <c r="I61" s="211"/>
-      <c r="J61" s="211"/>
+      <c r="C61" s="207"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="207"/>
+      <c r="H61" s="207"/>
+      <c r="I61" s="207"/>
+      <c r="J61" s="207"/>
       <c r="K61" s="64" t="s">
         <v>377</v>
       </c>
@@ -8160,17 +8166,17 @@
       <c r="A62" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B62" s="214" t="s">
+      <c r="B62" s="208" t="s">
         <v>380</v>
       </c>
-      <c r="C62" s="214"/>
-      <c r="D62" s="214"/>
-      <c r="E62" s="214"/>
-      <c r="F62" s="214"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="214"/>
-      <c r="I62" s="214"/>
-      <c r="J62" s="214"/>
+      <c r="C62" s="208"/>
+      <c r="D62" s="208"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="208"/>
+      <c r="G62" s="208"/>
+      <c r="H62" s="208"/>
+      <c r="I62" s="208"/>
+      <c r="J62" s="208"/>
       <c r="K62" s="73" t="s">
         <v>379</v>
       </c>
@@ -8180,52 +8186,52 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="215" t="s">
+      <c r="A65" s="214" t="s">
         <v>381</v>
       </c>
-      <c r="B65" s="215"/>
-      <c r="C65" s="215"/>
-      <c r="D65" s="215"/>
-      <c r="E65" s="215"/>
-      <c r="F65" s="215"/>
-      <c r="G65" s="215"/>
-      <c r="H65" s="215"/>
-      <c r="I65" s="215"/>
-      <c r="J65" s="215"/>
-      <c r="K65" s="215"/>
-      <c r="L65" s="215"/>
+      <c r="B65" s="214"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="214"/>
+      <c r="E65" s="214"/>
+      <c r="F65" s="214"/>
+      <c r="G65" s="214"/>
+      <c r="H65" s="214"/>
+      <c r="I65" s="214"/>
+      <c r="J65" s="214"/>
+      <c r="K65" s="214"/>
+      <c r="L65" s="214"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="215" t="s">
         <v>382</v>
       </c>
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
-      <c r="G66" s="216"/>
-      <c r="H66" s="216"/>
-      <c r="I66" s="216"/>
-      <c r="J66" s="216"/>
-      <c r="K66" s="216"/>
-      <c r="L66" s="216"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="215"/>
+      <c r="G66" s="215"/>
+      <c r="H66" s="215"/>
+      <c r="I66" s="215"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="215"/>
+      <c r="L66" s="215"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="216" t="s">
+      <c r="A67" s="215" t="s">
         <v>383</v>
       </c>
-      <c r="B67" s="216"/>
-      <c r="C67" s="216"/>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
-      <c r="G67" s="216"/>
-      <c r="H67" s="216"/>
-      <c r="I67" s="216"/>
-      <c r="J67" s="216"/>
-      <c r="K67" s="216"/>
-      <c r="L67" s="216"/>
+      <c r="B67" s="215"/>
+      <c r="C67" s="215"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="215"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
@@ -8254,15 +8260,15 @@
       <c r="A69" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="207" t="s">
         <v>387</v>
       </c>
-      <c r="C69" s="211"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="211"/>
-      <c r="F69" s="211"/>
-      <c r="G69" s="211"/>
-      <c r="H69" s="211"/>
+      <c r="C69" s="207"/>
+      <c r="D69" s="207"/>
+      <c r="E69" s="207"/>
+      <c r="F69" s="207"/>
+      <c r="G69" s="207"/>
+      <c r="H69" s="207"/>
       <c r="I69" s="64" t="s">
         <v>386</v>
       </c>
@@ -8277,17 +8283,17 @@
       <c r="A70" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="B70" s="211" t="s">
+      <c r="B70" s="207" t="s">
         <v>389</v>
       </c>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
+      <c r="C70" s="207"/>
+      <c r="D70" s="207"/>
+      <c r="E70" s="207"/>
+      <c r="F70" s="207"/>
+      <c r="G70" s="207"/>
+      <c r="H70" s="207"/>
+      <c r="I70" s="207"/>
+      <c r="J70" s="207"/>
       <c r="K70" s="64" t="s">
         <v>388</v>
       </c>
@@ -8297,36 +8303,36 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
+      <c r="A71" s="211" t="s">
         <v>390</v>
       </c>
-      <c r="B71" s="219"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="219"/>
-      <c r="F71" s="219"/>
-      <c r="G71" s="219"/>
-      <c r="H71" s="219"/>
-      <c r="I71" s="219"/>
-      <c r="J71" s="219"/>
-      <c r="K71" s="219"/>
-      <c r="L71" s="219"/>
+      <c r="B71" s="211"/>
+      <c r="C71" s="211"/>
+      <c r="D71" s="211"/>
+      <c r="E71" s="211"/>
+      <c r="F71" s="211"/>
+      <c r="G71" s="211"/>
+      <c r="H71" s="211"/>
+      <c r="I71" s="211"/>
+      <c r="J71" s="211"/>
+      <c r="K71" s="211"/>
+      <c r="L71" s="211"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="211" t="s">
+      <c r="B72" s="207" t="s">
         <v>391</v>
       </c>
-      <c r="C72" s="211"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="211"/>
-      <c r="F72" s="211"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="211"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="211"/>
+      <c r="C72" s="207"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="207"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="207"/>
+      <c r="H72" s="207"/>
+      <c r="I72" s="207"/>
+      <c r="J72" s="207"/>
       <c r="K72" s="64" t="s">
         <v>49</v>
       </c>
@@ -8339,15 +8345,15 @@
       <c r="A73" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="B73" s="211" t="s">
+      <c r="B73" s="207" t="s">
         <v>393</v>
       </c>
-      <c r="C73" s="211"/>
-      <c r="D73" s="211"/>
-      <c r="E73" s="211"/>
-      <c r="F73" s="211"/>
-      <c r="G73" s="211"/>
-      <c r="H73" s="211"/>
+      <c r="C73" s="207"/>
+      <c r="D73" s="207"/>
+      <c r="E73" s="207"/>
+      <c r="F73" s="207"/>
+      <c r="G73" s="207"/>
+      <c r="H73" s="207"/>
       <c r="I73" s="64" t="s">
         <v>392</v>
       </c>
@@ -8359,13 +8365,13 @@
       <c r="A74" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="B74" s="211" t="s">
+      <c r="B74" s="207" t="s">
         <v>395</v>
       </c>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="211"/>
-      <c r="F74" s="211"/>
+      <c r="C74" s="207"/>
+      <c r="D74" s="207"/>
+      <c r="E74" s="207"/>
+      <c r="F74" s="207"/>
       <c r="G74" s="64" t="s">
         <v>394</v>
       </c>
@@ -8379,15 +8385,15 @@
       <c r="A75" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="211" t="s">
+      <c r="B75" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="C75" s="211"/>
-      <c r="D75" s="211"/>
-      <c r="E75" s="211"/>
-      <c r="F75" s="211"/>
-      <c r="G75" s="211"/>
-      <c r="H75" s="211"/>
+      <c r="C75" s="207"/>
+      <c r="D75" s="207"/>
+      <c r="E75" s="207"/>
+      <c r="F75" s="207"/>
+      <c r="G75" s="207"/>
+      <c r="H75" s="207"/>
       <c r="I75" s="64" t="s">
         <v>53</v>
       </c>
@@ -8402,17 +8408,17 @@
       <c r="A76" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="211" t="s">
+      <c r="B76" s="207" t="s">
         <v>397</v>
       </c>
-      <c r="C76" s="211"/>
-      <c r="D76" s="211"/>
-      <c r="E76" s="211"/>
-      <c r="F76" s="211"/>
-      <c r="G76" s="211"/>
-      <c r="H76" s="211"/>
-      <c r="I76" s="211"/>
-      <c r="J76" s="211"/>
+      <c r="C76" s="207"/>
+      <c r="D76" s="207"/>
+      <c r="E76" s="207"/>
+      <c r="F76" s="207"/>
+      <c r="G76" s="207"/>
+      <c r="H76" s="207"/>
+      <c r="I76" s="207"/>
+      <c r="J76" s="207"/>
       <c r="K76" s="64" t="s">
         <v>55</v>
       </c>
@@ -8422,66 +8428,66 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="219" t="s">
+      <c r="A77" s="211" t="s">
         <v>398</v>
       </c>
-      <c r="B77" s="219"/>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="219"/>
-      <c r="J77" s="219"/>
-      <c r="K77" s="219"/>
-      <c r="L77" s="219"/>
+      <c r="B77" s="211"/>
+      <c r="C77" s="211"/>
+      <c r="D77" s="211"/>
+      <c r="E77" s="211"/>
+      <c r="F77" s="211"/>
+      <c r="G77" s="211"/>
+      <c r="H77" s="211"/>
+      <c r="I77" s="211"/>
+      <c r="J77" s="211"/>
+      <c r="K77" s="211"/>
+      <c r="L77" s="211"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="219" t="s">
+      <c r="A78" s="211" t="s">
         <v>399</v>
       </c>
-      <c r="B78" s="219"/>
-      <c r="C78" s="219"/>
-      <c r="D78" s="219"/>
-      <c r="E78" s="219"/>
-      <c r="F78" s="219"/>
-      <c r="G78" s="219"/>
-      <c r="H78" s="219"/>
-      <c r="I78" s="219"/>
-      <c r="J78" s="219"/>
-      <c r="K78" s="219"/>
-      <c r="L78" s="219"/>
+      <c r="B78" s="211"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="211"/>
+      <c r="K78" s="211"/>
+      <c r="L78" s="211"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="221" t="s">
+      <c r="A79" s="212" t="s">
         <v>400</v>
       </c>
-      <c r="B79" s="221"/>
-      <c r="C79" s="221"/>
-      <c r="D79" s="221"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="221"/>
-      <c r="G79" s="221"/>
-      <c r="H79" s="221"/>
-      <c r="I79" s="221"/>
-      <c r="J79" s="221"/>
-      <c r="K79" s="221"/>
-      <c r="L79" s="221"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="212"/>
+      <c r="D79" s="212"/>
+      <c r="E79" s="212"/>
+      <c r="F79" s="212"/>
+      <c r="G79" s="212"/>
+      <c r="H79" s="212"/>
+      <c r="I79" s="212"/>
+      <c r="J79" s="212"/>
+      <c r="K79" s="212"/>
+      <c r="L79" s="212"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="209" t="s">
+      <c r="A81" s="213" t="s">
         <v>401</v>
       </c>
-      <c r="B81" s="209"/>
-      <c r="C81" s="209"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="209"/>
-      <c r="F81" s="209"/>
-      <c r="G81" s="209"/>
+      <c r="B81" s="213"/>
+      <c r="C81" s="213"/>
+      <c r="D81" s="213"/>
+      <c r="E81" s="213"/>
+      <c r="F81" s="213"/>
+      <c r="G81" s="213"/>
       <c r="H81" s="79"/>
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
@@ -8515,15 +8521,15 @@
       <c r="A83" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="211" t="s">
+      <c r="B83" s="207" t="s">
         <v>403</v>
       </c>
-      <c r="C83" s="211"/>
-      <c r="D83" s="211"/>
-      <c r="E83" s="211"/>
-      <c r="F83" s="211"/>
-      <c r="G83" s="211"/>
-      <c r="H83" s="211"/>
+      <c r="C83" s="207"/>
+      <c r="D83" s="207"/>
+      <c r="E83" s="207"/>
+      <c r="F83" s="207"/>
+      <c r="G83" s="207"/>
+      <c r="H83" s="207"/>
       <c r="I83" s="64" t="s">
         <v>59</v>
       </c>
@@ -8535,15 +8541,15 @@
       <c r="A84" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="211" t="s">
+      <c r="B84" s="207" t="s">
         <v>404</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="211"/>
-      <c r="G84" s="211"/>
-      <c r="H84" s="211"/>
+      <c r="C84" s="207"/>
+      <c r="D84" s="207"/>
+      <c r="E84" s="207"/>
+      <c r="F84" s="207"/>
+      <c r="G84" s="207"/>
+      <c r="H84" s="207"/>
       <c r="I84" s="64" t="s">
         <v>61</v>
       </c>
@@ -8558,15 +8564,15 @@
       <c r="A85" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="211" t="s">
+      <c r="B85" s="207" t="s">
         <v>405</v>
       </c>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
-      <c r="E85" s="211"/>
-      <c r="F85" s="211"/>
-      <c r="G85" s="211"/>
-      <c r="H85" s="211"/>
+      <c r="C85" s="207"/>
+      <c r="D85" s="207"/>
+      <c r="E85" s="207"/>
+      <c r="F85" s="207"/>
+      <c r="G85" s="207"/>
+      <c r="H85" s="207"/>
       <c r="I85" s="64" t="s">
         <v>63</v>
       </c>
@@ -8581,17 +8587,17 @@
       <c r="A86" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B86" s="211" t="s">
+      <c r="B86" s="207" t="s">
         <v>406</v>
       </c>
-      <c r="C86" s="211"/>
-      <c r="D86" s="211"/>
-      <c r="E86" s="211"/>
-      <c r="F86" s="211"/>
-      <c r="G86" s="211"/>
-      <c r="H86" s="211"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="211"/>
+      <c r="C86" s="207"/>
+      <c r="D86" s="207"/>
+      <c r="E86" s="207"/>
+      <c r="F86" s="207"/>
+      <c r="G86" s="207"/>
+      <c r="H86" s="207"/>
+      <c r="I86" s="207"/>
+      <c r="J86" s="207"/>
       <c r="K86" s="64" t="s">
         <v>238</v>
       </c>
@@ -8604,17 +8610,17 @@
       <c r="A87" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="214" t="s">
+      <c r="B87" s="208" t="s">
         <v>407</v>
       </c>
-      <c r="C87" s="214"/>
-      <c r="D87" s="214"/>
-      <c r="E87" s="214"/>
-      <c r="F87" s="214"/>
-      <c r="G87" s="214"/>
-      <c r="H87" s="214"/>
-      <c r="I87" s="214"/>
-      <c r="J87" s="214"/>
+      <c r="C87" s="208"/>
+      <c r="D87" s="208"/>
+      <c r="E87" s="208"/>
+      <c r="F87" s="208"/>
+      <c r="G87" s="208"/>
+      <c r="H87" s="208"/>
+      <c r="I87" s="208"/>
+      <c r="J87" s="208"/>
       <c r="K87" s="73" t="s">
         <v>73</v>
       </c>
@@ -8624,42 +8630,42 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="198" t="s">
+      <c r="A88" s="197" t="s">
         <v>408</v>
       </c>
-      <c r="B88" s="198"/>
-      <c r="C88" s="198"/>
-      <c r="D88" s="198"/>
-      <c r="E88" s="198"/>
-      <c r="F88" s="198"/>
-      <c r="G88" s="198"/>
+      <c r="B88" s="197"/>
+      <c r="C88" s="197"/>
+      <c r="D88" s="197"/>
+      <c r="E88" s="197"/>
+      <c r="F88" s="197"/>
+      <c r="G88" s="197"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="198" t="s">
+      <c r="A91" s="197" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="198"/>
-      <c r="C91" s="198"/>
-      <c r="D91" s="198"/>
-      <c r="E91" s="198"/>
-      <c r="F91" s="198"/>
-      <c r="G91" s="198"/>
+      <c r="B91" s="197"/>
+      <c r="C91" s="197"/>
+      <c r="D91" s="197"/>
+      <c r="E91" s="197"/>
+      <c r="F91" s="197"/>
+      <c r="G91" s="197"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="B92" s="222" t="s">
+      <c r="B92" s="209" t="s">
         <v>411</v>
       </c>
-      <c r="C92" s="222"/>
-      <c r="D92" s="222"/>
-      <c r="E92" s="222"/>
-      <c r="F92" s="222"/>
-      <c r="G92" s="222"/>
-      <c r="H92" s="222"/>
-      <c r="I92" s="222"/>
-      <c r="J92" s="222"/>
+      <c r="C92" s="209"/>
+      <c r="D92" s="209"/>
+      <c r="E92" s="209"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
+      <c r="I92" s="209"/>
+      <c r="J92" s="209"/>
       <c r="K92" s="84" t="s">
         <v>410</v>
       </c>
@@ -8669,26 +8675,26 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="198" t="s">
+      <c r="A94" s="197" t="s">
         <v>412</v>
       </c>
-      <c r="B94" s="198"/>
-      <c r="C94" s="198"/>
-      <c r="D94" s="198"/>
-      <c r="E94" s="198"/>
-      <c r="F94" s="198"/>
-      <c r="G94" s="198"/>
+      <c r="B94" s="197"/>
+      <c r="C94" s="197"/>
+      <c r="D94" s="197"/>
+      <c r="E94" s="197"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="198" t="s">
+      <c r="A95" s="197" t="s">
         <v>413</v>
       </c>
-      <c r="B95" s="198"/>
-      <c r="C95" s="198"/>
-      <c r="D95" s="198"/>
-      <c r="E95" s="198"/>
-      <c r="F95" s="198"/>
-      <c r="G95" s="198"/>
+      <c r="B95" s="197"/>
+      <c r="C95" s="197"/>
+      <c r="D95" s="197"/>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
@@ -8714,17 +8720,17 @@
       <c r="A97" s="63" t="s">
         <v>416</v>
       </c>
-      <c r="B97" s="211" t="s">
+      <c r="B97" s="207" t="s">
         <v>417</v>
       </c>
-      <c r="C97" s="211"/>
-      <c r="D97" s="211"/>
-      <c r="E97" s="211"/>
-      <c r="F97" s="211"/>
-      <c r="G97" s="211"/>
-      <c r="H97" s="211"/>
-      <c r="I97" s="211"/>
-      <c r="J97" s="211"/>
+      <c r="C97" s="207"/>
+      <c r="D97" s="207"/>
+      <c r="E97" s="207"/>
+      <c r="F97" s="207"/>
+      <c r="G97" s="207"/>
+      <c r="H97" s="207"/>
+      <c r="I97" s="207"/>
+      <c r="J97" s="207"/>
       <c r="K97" s="64" t="s">
         <v>416</v>
       </c>
@@ -8734,17 +8740,17 @@
       <c r="A98" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="211" t="s">
+      <c r="B98" s="207" t="s">
         <v>418</v>
       </c>
-      <c r="C98" s="211"/>
-      <c r="D98" s="211"/>
-      <c r="E98" s="211"/>
-      <c r="F98" s="211"/>
-      <c r="G98" s="211"/>
-      <c r="H98" s="211"/>
-      <c r="I98" s="211"/>
-      <c r="J98" s="211"/>
+      <c r="C98" s="207"/>
+      <c r="D98" s="207"/>
+      <c r="E98" s="207"/>
+      <c r="F98" s="207"/>
+      <c r="G98" s="207"/>
+      <c r="H98" s="207"/>
+      <c r="I98" s="207"/>
+      <c r="J98" s="207"/>
       <c r="K98" s="64" t="s">
         <v>83</v>
       </c>
@@ -8757,17 +8763,17 @@
       <c r="A99" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="211" t="s">
+      <c r="B99" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="C99" s="211"/>
-      <c r="D99" s="211"/>
-      <c r="E99" s="211"/>
-      <c r="F99" s="211"/>
-      <c r="G99" s="211"/>
-      <c r="H99" s="211"/>
-      <c r="I99" s="211"/>
-      <c r="J99" s="211"/>
+      <c r="C99" s="207"/>
+      <c r="D99" s="207"/>
+      <c r="E99" s="207"/>
+      <c r="F99" s="207"/>
+      <c r="G99" s="207"/>
+      <c r="H99" s="207"/>
+      <c r="I99" s="207"/>
+      <c r="J99" s="207"/>
       <c r="K99" s="64" t="s">
         <v>85</v>
       </c>
@@ -8777,17 +8783,17 @@
       <c r="A100" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="211" t="s">
+      <c r="B100" s="207" t="s">
         <v>420</v>
       </c>
-      <c r="C100" s="211"/>
-      <c r="D100" s="211"/>
-      <c r="E100" s="211"/>
-      <c r="F100" s="211"/>
-      <c r="G100" s="211"/>
-      <c r="H100" s="211"/>
-      <c r="I100" s="211"/>
-      <c r="J100" s="211"/>
+      <c r="C100" s="207"/>
+      <c r="D100" s="207"/>
+      <c r="E100" s="207"/>
+      <c r="F100" s="207"/>
+      <c r="G100" s="207"/>
+      <c r="H100" s="207"/>
+      <c r="I100" s="207"/>
+      <c r="J100" s="207"/>
       <c r="K100" s="64" t="s">
         <v>87</v>
       </c>
@@ -8800,17 +8806,17 @@
       <c r="A101" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="211" t="s">
+      <c r="B101" s="207" t="s">
         <v>421</v>
       </c>
-      <c r="C101" s="211"/>
-      <c r="D101" s="211"/>
-      <c r="E101" s="211"/>
-      <c r="F101" s="211"/>
-      <c r="G101" s="211"/>
-      <c r="H101" s="211"/>
-      <c r="I101" s="211"/>
-      <c r="J101" s="211"/>
+      <c r="C101" s="207"/>
+      <c r="D101" s="207"/>
+      <c r="E101" s="207"/>
+      <c r="F101" s="207"/>
+      <c r="G101" s="207"/>
+      <c r="H101" s="207"/>
+      <c r="I101" s="207"/>
+      <c r="J101" s="207"/>
       <c r="K101" s="64" t="s">
         <v>89</v>
       </c>
@@ -8823,17 +8829,17 @@
       <c r="A102" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="211" t="s">
+      <c r="B102" s="207" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="211"/>
-      <c r="D102" s="211"/>
-      <c r="E102" s="211"/>
-      <c r="F102" s="211"/>
-      <c r="G102" s="211"/>
-      <c r="H102" s="211"/>
-      <c r="I102" s="211"/>
-      <c r="J102" s="211"/>
+      <c r="C102" s="207"/>
+      <c r="D102" s="207"/>
+      <c r="E102" s="207"/>
+      <c r="F102" s="207"/>
+      <c r="G102" s="207"/>
+      <c r="H102" s="207"/>
+      <c r="I102" s="207"/>
+      <c r="J102" s="207"/>
       <c r="K102" s="64" t="s">
         <v>91</v>
       </c>
@@ -8843,17 +8849,17 @@
       <c r="A103" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B103" s="211" t="s">
+      <c r="B103" s="207" t="s">
         <v>422</v>
       </c>
-      <c r="C103" s="211"/>
-      <c r="D103" s="211"/>
-      <c r="E103" s="211"/>
-      <c r="F103" s="211"/>
-      <c r="G103" s="211"/>
-      <c r="H103" s="211"/>
-      <c r="I103" s="211"/>
-      <c r="J103" s="211"/>
+      <c r="C103" s="207"/>
+      <c r="D103" s="207"/>
+      <c r="E103" s="207"/>
+      <c r="F103" s="207"/>
+      <c r="G103" s="207"/>
+      <c r="H103" s="207"/>
+      <c r="I103" s="207"/>
+      <c r="J103" s="207"/>
       <c r="K103" s="64" t="s">
         <v>94</v>
       </c>
@@ -8866,17 +8872,17 @@
       <c r="A104" s="63" t="s">
         <v>423</v>
       </c>
-      <c r="B104" s="211" t="s">
+      <c r="B104" s="207" t="s">
         <v>424</v>
       </c>
-      <c r="C104" s="211"/>
-      <c r="D104" s="211"/>
-      <c r="E104" s="211"/>
-      <c r="F104" s="211"/>
-      <c r="G104" s="211"/>
-      <c r="H104" s="211"/>
-      <c r="I104" s="211"/>
-      <c r="J104" s="211"/>
+      <c r="C104" s="207"/>
+      <c r="D104" s="207"/>
+      <c r="E104" s="207"/>
+      <c r="F104" s="207"/>
+      <c r="G104" s="207"/>
+      <c r="H104" s="207"/>
+      <c r="I104" s="207"/>
+      <c r="J104" s="207"/>
       <c r="K104" s="64" t="s">
         <v>423</v>
       </c>
@@ -8889,17 +8895,17 @@
       <c r="A105" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="211" t="s">
+      <c r="B105" s="207" t="s">
         <v>425</v>
       </c>
-      <c r="C105" s="211"/>
-      <c r="D105" s="211"/>
-      <c r="E105" s="211"/>
-      <c r="F105" s="211"/>
-      <c r="G105" s="211"/>
-      <c r="H105" s="211"/>
-      <c r="I105" s="211"/>
-      <c r="J105" s="211"/>
+      <c r="C105" s="207"/>
+      <c r="D105" s="207"/>
+      <c r="E105" s="207"/>
+      <c r="F105" s="207"/>
+      <c r="G105" s="207"/>
+      <c r="H105" s="207"/>
+      <c r="I105" s="207"/>
+      <c r="J105" s="207"/>
       <c r="K105" s="64" t="s">
         <v>97</v>
       </c>
@@ -8912,17 +8918,17 @@
       <c r="A106" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="211" t="s">
+      <c r="B106" s="207" t="s">
         <v>426</v>
       </c>
-      <c r="C106" s="211"/>
-      <c r="D106" s="211"/>
-      <c r="E106" s="211"/>
-      <c r="F106" s="211"/>
-      <c r="G106" s="211"/>
-      <c r="H106" s="211"/>
-      <c r="I106" s="211"/>
-      <c r="J106" s="211"/>
+      <c r="C106" s="207"/>
+      <c r="D106" s="207"/>
+      <c r="E106" s="207"/>
+      <c r="F106" s="207"/>
+      <c r="G106" s="207"/>
+      <c r="H106" s="207"/>
+      <c r="I106" s="207"/>
+      <c r="J106" s="207"/>
       <c r="K106" s="64" t="s">
         <v>100</v>
       </c>
@@ -8935,17 +8941,17 @@
       <c r="A107" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="211" t="s">
+      <c r="B107" s="207" t="s">
         <v>427</v>
       </c>
-      <c r="C107" s="211"/>
-      <c r="D107" s="211"/>
-      <c r="E107" s="211"/>
-      <c r="F107" s="211"/>
-      <c r="G107" s="211"/>
-      <c r="H107" s="211"/>
-      <c r="I107" s="211"/>
-      <c r="J107" s="211"/>
+      <c r="C107" s="207"/>
+      <c r="D107" s="207"/>
+      <c r="E107" s="207"/>
+      <c r="F107" s="207"/>
+      <c r="G107" s="207"/>
+      <c r="H107" s="207"/>
+      <c r="I107" s="207"/>
+      <c r="J107" s="207"/>
       <c r="K107" s="64" t="s">
         <v>102</v>
       </c>
@@ -8958,17 +8964,17 @@
       <c r="A108" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="B108" s="211" t="s">
+      <c r="B108" s="207" t="s">
         <v>429</v>
       </c>
-      <c r="C108" s="211"/>
-      <c r="D108" s="211"/>
-      <c r="E108" s="211"/>
-      <c r="F108" s="211"/>
-      <c r="G108" s="211"/>
-      <c r="H108" s="211"/>
-      <c r="I108" s="211"/>
-      <c r="J108" s="211"/>
+      <c r="C108" s="207"/>
+      <c r="D108" s="207"/>
+      <c r="E108" s="207"/>
+      <c r="F108" s="207"/>
+      <c r="G108" s="207"/>
+      <c r="H108" s="207"/>
+      <c r="I108" s="207"/>
+      <c r="J108" s="207"/>
       <c r="K108" s="64" t="s">
         <v>428</v>
       </c>
@@ -8981,17 +8987,17 @@
       <c r="A109" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="B109" s="214" t="s">
+      <c r="B109" s="208" t="s">
         <v>431</v>
       </c>
-      <c r="C109" s="214"/>
-      <c r="D109" s="214"/>
-      <c r="E109" s="214"/>
-      <c r="F109" s="214"/>
-      <c r="G109" s="214"/>
-      <c r="H109" s="214"/>
-      <c r="I109" s="214"/>
-      <c r="J109" s="214"/>
+      <c r="C109" s="208"/>
+      <c r="D109" s="208"/>
+      <c r="E109" s="208"/>
+      <c r="F109" s="208"/>
+      <c r="G109" s="208"/>
+      <c r="H109" s="208"/>
+      <c r="I109" s="208"/>
+      <c r="J109" s="208"/>
       <c r="K109" s="73" t="s">
         <v>430</v>
       </c>
@@ -9002,6 +9008,96 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B76:J76"/>
+    <mergeCell ref="A77:L77"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="B92:J92"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="B96:J96"/>
+    <mergeCell ref="B97:J97"/>
+    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B101:J101"/>
     <mergeCell ref="B107:J107"/>
     <mergeCell ref="B108:J108"/>
     <mergeCell ref="B109:J109"/>
@@ -9010,96 +9106,6 @@
     <mergeCell ref="B104:J104"/>
     <mergeCell ref="B105:J105"/>
     <mergeCell ref="B106:J106"/>
-    <mergeCell ref="B97:J97"/>
-    <mergeCell ref="B98:J98"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="B92:J92"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="B96:J96"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B86:J86"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="B82:H82"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B76:J76"/>
-    <mergeCell ref="A77:L77"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9130,32 +9136,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="230" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="228" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
       <c r="I2" s="88" t="s">
         <v>1</v>
       </c>
@@ -9167,15 +9173,15 @@
       <c r="A3" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="224" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
       <c r="I3" s="91" t="s">
         <v>244</v>
       </c>
@@ -9187,15 +9193,15 @@
       <c r="A4" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="224" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
       <c r="I4" s="91" t="s">
         <v>151</v>
       </c>
@@ -9208,15 +9214,15 @@
       <c r="A5" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="224" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
       <c r="I5" s="91" t="s">
         <v>153</v>
       </c>
@@ -9228,15 +9234,15 @@
       <c r="A6" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="224" t="s">
         <v>437</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
       <c r="I6" s="91" t="s">
         <v>155</v>
       </c>
@@ -9249,71 +9255,71 @@
       <c r="A7" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="225" t="s">
+      <c r="B7" s="224" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
       <c r="I7" s="91" t="s">
         <v>157</v>
       </c>
       <c r="J7" s="92"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="223" t="s">
         <v>438</v>
       </c>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
       <c r="I8" s="94"/>
       <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="226" t="s">
+      <c r="A9" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
       <c r="G9" s="93"/>
       <c r="H9" s="93"/>
       <c r="I9" s="94"/>
       <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="226" t="s">
+      <c r="A10" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
       <c r="G10" s="93"/>
       <c r="H10" s="93"/>
       <c r="I10" s="94"/>
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="223" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
       <c r="G11" s="93"/>
       <c r="H11" s="93"/>
       <c r="I11" s="94"/>
@@ -9323,15 +9329,15 @@
       <c r="A12" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="224" t="s">
         <v>442</v>
       </c>
-      <c r="C12" s="225"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="225"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
       <c r="I12" s="91" t="s">
         <v>21</v>
       </c>
@@ -9344,57 +9350,57 @@
       <c r="A13" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="224" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
       <c r="I13" s="91" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="226" t="s">
+      <c r="A14" s="223" t="s">
         <v>443</v>
       </c>
-      <c r="B14" s="226"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
       <c r="G14" s="93"/>
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
       <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="223" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="226"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="223" t="s">
         <v>445</v>
       </c>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
       <c r="I16" s="94"/>
@@ -9404,15 +9410,15 @@
       <c r="A17" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="224" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="225"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
       <c r="I17" s="91" t="s">
         <v>25</v>
       </c>
@@ -9421,44 +9427,44 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="226"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="94"/>
       <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
+      <c r="A19" s="231" t="s">
         <v>448</v>
       </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
       <c r="I19" s="94"/>
       <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="231" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
       <c r="I20" s="94"/>
       <c r="J20" s="95"/>
     </row>
@@ -9466,15 +9472,15 @@
       <c r="A21" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>450</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
       <c r="I21" s="91" t="s">
         <v>195</v>
       </c>
@@ -9487,15 +9493,15 @@
       <c r="A22" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="224" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
       <c r="I22" s="91" t="s">
         <v>29</v>
       </c>
@@ -9508,15 +9514,15 @@
       <c r="A23" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="229" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
       <c r="I23" s="98" t="s">
         <v>199</v>
       </c>
@@ -9538,46 +9544,46 @@
       <c r="J24" s="100"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="223" t="s">
+      <c r="A25" s="230" t="s">
         <v>453</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="230"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="228" t="s">
         <v>454</v>
       </c>
-      <c r="C26" s="224"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
       <c r="I26" s="88" t="s">
         <v>1</v>
       </c>
       <c r="J26" s="89"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="226" t="s">
+      <c r="A27" s="223" t="s">
         <v>455</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
       <c r="G27" s="93"/>
       <c r="H27" s="93"/>
       <c r="I27" s="94"/>
@@ -9587,13 +9593,13 @@
       <c r="A28" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="225" t="s">
+      <c r="B28" s="224" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="225"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
       <c r="G28" s="91" t="s">
         <v>3</v>
       </c>
@@ -9605,13 +9611,13 @@
       <c r="A29" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="224" t="s">
         <v>457</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
       <c r="G29" s="91" t="s">
         <v>5</v>
       </c>
@@ -9623,13 +9629,13 @@
       <c r="A30" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="225" t="s">
+      <c r="B30" s="224" t="s">
         <v>458</v>
       </c>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
       <c r="G30" s="91" t="s">
         <v>311</v>
       </c>
@@ -9641,13 +9647,13 @@
       <c r="A31" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="224" t="s">
         <v>459</v>
       </c>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
       <c r="G31" s="91" t="s">
         <v>313</v>
       </c>
@@ -9659,13 +9665,13 @@
       <c r="A32" s="90" t="s">
         <v>460</v>
       </c>
-      <c r="B32" s="225" t="s">
+      <c r="B32" s="224" t="s">
         <v>461</v>
       </c>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="91" t="s">
         <v>460</v>
       </c>
@@ -9677,13 +9683,13 @@
       <c r="A33" s="90" t="s">
         <v>462</v>
       </c>
-      <c r="B33" s="225" t="s">
+      <c r="B33" s="224" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
       <c r="G33" s="91" t="s">
         <v>462</v>
       </c>
@@ -9695,13 +9701,13 @@
       <c r="A34" s="90" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="225" t="s">
+      <c r="B34" s="224" t="s">
         <v>465</v>
       </c>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
       <c r="G34" s="91" t="s">
         <v>464</v>
       </c>
@@ -9713,13 +9719,13 @@
       <c r="A35" s="90" t="s">
         <v>466</v>
       </c>
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="224" t="s">
         <v>467</v>
       </c>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="91" t="s">
         <v>466</v>
       </c>
@@ -9731,13 +9737,13 @@
       <c r="A36" s="90" t="s">
         <v>468</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="224" t="s">
         <v>469</v>
       </c>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
       <c r="G36" s="91" t="s">
         <v>468</v>
       </c>
@@ -9749,13 +9755,13 @@
       <c r="A37" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="B37" s="225" t="s">
+      <c r="B37" s="224" t="s">
         <v>470</v>
       </c>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="225"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
       <c r="G37" s="91" t="s">
         <v>244</v>
       </c>
@@ -9770,15 +9776,15 @@
       <c r="A38" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="225" t="s">
+      <c r="B38" s="224" t="s">
         <v>471</v>
       </c>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
       <c r="I38" s="91" t="s">
         <v>151</v>
       </c>
@@ -9791,15 +9797,15 @@
       <c r="A39" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="225" t="s">
+      <c r="B39" s="224" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
-      <c r="G39" s="225"/>
-      <c r="H39" s="225"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="224"/>
+      <c r="G39" s="224"/>
+      <c r="H39" s="224"/>
       <c r="I39" s="91" t="s">
         <v>153</v>
       </c>
@@ -9812,15 +9818,15 @@
       <c r="A40" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="228" t="s">
+      <c r="B40" s="229" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="228"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="228"/>
-      <c r="H40" s="228"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
       <c r="I40" s="98" t="s">
         <v>155</v>
       </c>
@@ -9842,32 +9848,32 @@
       <c r="J41" s="100"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="223" t="s">
+      <c r="A42" s="230" t="s">
         <v>474</v>
       </c>
-      <c r="B42" s="223"/>
-      <c r="C42" s="223"/>
-      <c r="D42" s="223"/>
-      <c r="E42" s="223"/>
-      <c r="F42" s="223"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="223"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="228" t="s">
         <v>475</v>
       </c>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="224"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
       <c r="I43" s="88" t="s">
         <v>1</v>
       </c>
@@ -9879,13 +9885,13 @@
       <c r="A44" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="225" t="s">
+      <c r="B44" s="224" t="s">
         <v>476</v>
       </c>
-      <c r="C44" s="225"/>
-      <c r="D44" s="225"/>
-      <c r="E44" s="225"/>
-      <c r="F44" s="225"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="224"/>
       <c r="G44" s="103" t="s">
         <v>3</v>
       </c>
@@ -9899,15 +9905,15 @@
       <c r="A45" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="B45" s="225" t="s">
+      <c r="B45" s="224" t="s">
         <v>477</v>
       </c>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="224"/>
+      <c r="G45" s="224"/>
+      <c r="H45" s="224"/>
       <c r="I45" s="91" t="s">
         <v>244</v>
       </c>
@@ -9920,15 +9926,15 @@
       <c r="A46" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="225" t="s">
+      <c r="B46" s="224" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="224"/>
+      <c r="G46" s="224"/>
+      <c r="H46" s="224"/>
       <c r="I46" s="91" t="s">
         <v>151</v>
       </c>
@@ -9938,15 +9944,15 @@
       <c r="A47" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="225" t="s">
+      <c r="B47" s="224" t="s">
         <v>479</v>
       </c>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="224"/>
       <c r="I47" s="91" t="s">
         <v>153</v>
       </c>
@@ -9959,15 +9965,15 @@
       <c r="A48" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="225" t="s">
+      <c r="B48" s="224" t="s">
         <v>480</v>
       </c>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="225"/>
-      <c r="H48" s="225"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="224"/>
+      <c r="H48" s="224"/>
       <c r="I48" s="91" t="s">
         <v>155</v>
       </c>
@@ -9980,15 +9986,15 @@
       <c r="A49" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="225" t="s">
+      <c r="B49" s="224" t="s">
         <v>481</v>
       </c>
-      <c r="C49" s="225"/>
-      <c r="D49" s="225"/>
-      <c r="E49" s="225"/>
-      <c r="F49" s="225"/>
-      <c r="G49" s="225"/>
-      <c r="H49" s="225"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="224"/>
       <c r="I49" s="91" t="s">
         <v>157</v>
       </c>
@@ -9998,13 +10004,13 @@
       <c r="A50" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="225" t="s">
+      <c r="B50" s="224" t="s">
         <v>482</v>
       </c>
-      <c r="C50" s="225"/>
-      <c r="D50" s="225"/>
-      <c r="E50" s="225"/>
-      <c r="F50" s="225"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="224"/>
+      <c r="F50" s="224"/>
       <c r="G50" s="91" t="s">
         <v>21</v>
       </c>
@@ -10016,13 +10022,13 @@
       <c r="A51" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="225" t="s">
+      <c r="B51" s="224" t="s">
         <v>483</v>
       </c>
-      <c r="C51" s="225"/>
-      <c r="D51" s="225"/>
-      <c r="E51" s="225"/>
-      <c r="F51" s="225"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="224"/>
+      <c r="F51" s="224"/>
       <c r="G51" s="91" t="s">
         <v>23</v>
       </c>
@@ -10031,56 +10037,56 @@
       <c r="J51" s="95"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="226" t="s">
+      <c r="A52" s="223" t="s">
         <v>484</v>
       </c>
-      <c r="B52" s="226"/>
-      <c r="C52" s="226"/>
-      <c r="D52" s="226"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="226"/>
+      <c r="B52" s="223"/>
+      <c r="C52" s="223"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="223"/>
       <c r="G52" s="93"/>
       <c r="H52" s="93"/>
       <c r="I52" s="94"/>
       <c r="J52" s="95"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="226" t="s">
+      <c r="A53" s="223" t="s">
         <v>485</v>
       </c>
-      <c r="B53" s="226"/>
-      <c r="C53" s="226"/>
-      <c r="D53" s="226"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="226"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="223"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="223"/>
       <c r="G53" s="93"/>
       <c r="H53" s="93"/>
       <c r="I53" s="94"/>
       <c r="J53" s="95"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="226" t="s">
+      <c r="A54" s="223" t="s">
         <v>486</v>
       </c>
-      <c r="B54" s="226"/>
-      <c r="C54" s="226"/>
-      <c r="D54" s="226"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="226"/>
+      <c r="B54" s="223"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="223"/>
       <c r="G54" s="93"/>
       <c r="H54" s="93"/>
       <c r="I54" s="94"/>
       <c r="J54" s="95"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="226" t="s">
+      <c r="A55" s="223" t="s">
         <v>487</v>
       </c>
-      <c r="B55" s="226"/>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="226"/>
+      <c r="B55" s="223"/>
+      <c r="C55" s="223"/>
+      <c r="D55" s="223"/>
+      <c r="E55" s="223"/>
+      <c r="F55" s="223"/>
       <c r="G55" s="93"/>
       <c r="H55" s="93"/>
       <c r="I55" s="94"/>
@@ -10090,13 +10096,13 @@
       <c r="A56" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="225" t="s">
+      <c r="B56" s="224" t="s">
         <v>488</v>
       </c>
-      <c r="C56" s="225"/>
-      <c r="D56" s="225"/>
-      <c r="E56" s="225"/>
-      <c r="F56" s="225"/>
+      <c r="C56" s="224"/>
+      <c r="D56" s="224"/>
+      <c r="E56" s="224"/>
+      <c r="F56" s="224"/>
       <c r="G56" s="91" t="s">
         <v>25</v>
       </c>
@@ -10108,30 +10114,30 @@
       <c r="J56" s="95"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="229" t="s">
+      <c r="A57" s="227" t="s">
         <v>489</v>
       </c>
-      <c r="B57" s="229"/>
-      <c r="C57" s="229"/>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="229"/>
-      <c r="I57" s="229"/>
-      <c r="J57" s="229"/>
+      <c r="B57" s="227"/>
+      <c r="C57" s="227"/>
+      <c r="D57" s="227"/>
+      <c r="E57" s="227"/>
+      <c r="F57" s="227"/>
+      <c r="G57" s="227"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="227"/>
+      <c r="J57" s="227"/>
     </row>
     <row r="58" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="231" t="s">
+      <c r="B58" s="226" t="s">
         <v>490</v>
       </c>
-      <c r="C58" s="231"/>
-      <c r="D58" s="231"/>
-      <c r="E58" s="231"/>
-      <c r="F58" s="231"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
       <c r="G58" s="91" t="s">
         <v>195</v>
       </c>
@@ -10143,15 +10149,15 @@
       <c r="A59" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="225" t="s">
+      <c r="B59" s="224" t="s">
         <v>491</v>
       </c>
-      <c r="C59" s="225"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="224"/>
+      <c r="F59" s="224"/>
+      <c r="G59" s="224"/>
+      <c r="H59" s="224"/>
       <c r="I59" s="91" t="s">
         <v>29</v>
       </c>
@@ -10164,15 +10170,15 @@
       <c r="A60" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="225" t="s">
+      <c r="B60" s="224" t="s">
         <v>492</v>
       </c>
-      <c r="C60" s="225"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="225"/>
-      <c r="F60" s="225"/>
-      <c r="G60" s="225"/>
-      <c r="H60" s="225"/>
+      <c r="C60" s="224"/>
+      <c r="D60" s="224"/>
+      <c r="E60" s="224"/>
+      <c r="F60" s="224"/>
+      <c r="G60" s="224"/>
+      <c r="H60" s="224"/>
       <c r="I60" s="91" t="s">
         <v>199</v>
       </c>
@@ -10185,15 +10191,15 @@
       <c r="A61" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="224" t="s">
         <v>493</v>
       </c>
-      <c r="C61" s="225"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="225"/>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
-      <c r="H61" s="225"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="224"/>
+      <c r="F61" s="224"/>
+      <c r="G61" s="224"/>
+      <c r="H61" s="224"/>
       <c r="I61" s="91" t="s">
         <v>40</v>
       </c>
@@ -10206,15 +10212,15 @@
       <c r="A62" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="225" t="s">
+      <c r="B62" s="224" t="s">
         <v>494</v>
       </c>
-      <c r="C62" s="225"/>
-      <c r="D62" s="225"/>
-      <c r="E62" s="225"/>
-      <c r="F62" s="225"/>
-      <c r="G62" s="225"/>
-      <c r="H62" s="225"/>
+      <c r="C62" s="224"/>
+      <c r="D62" s="224"/>
+      <c r="E62" s="224"/>
+      <c r="F62" s="224"/>
+      <c r="G62" s="224"/>
+      <c r="H62" s="224"/>
       <c r="I62" s="91" t="s">
         <v>42</v>
       </c>
@@ -10224,28 +10230,28 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="226" t="s">
+      <c r="A63" s="223" t="s">
         <v>495</v>
       </c>
-      <c r="B63" s="226"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226"/>
-      <c r="F63" s="226"/>
+      <c r="B63" s="223"/>
+      <c r="C63" s="223"/>
+      <c r="D63" s="223"/>
+      <c r="E63" s="223"/>
+      <c r="F63" s="223"/>
       <c r="G63" s="93"/>
       <c r="H63" s="93"/>
       <c r="I63" s="94"/>
       <c r="J63" s="95"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="226" t="s">
+      <c r="A64" s="223" t="s">
         <v>496</v>
       </c>
-      <c r="B64" s="226"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="226"/>
-      <c r="E64" s="226"/>
-      <c r="F64" s="226"/>
+      <c r="B64" s="223"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="223"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="223"/>
       <c r="G64" s="93"/>
       <c r="H64" s="93"/>
       <c r="I64" s="94"/>
@@ -10255,29 +10261,29 @@
       <c r="A65" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="225" t="s">
+      <c r="B65" s="224" t="s">
         <v>497</v>
       </c>
-      <c r="C65" s="225"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
-      <c r="H65" s="225"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="224"/>
+      <c r="E65" s="224"/>
+      <c r="F65" s="224"/>
+      <c r="G65" s="224"/>
+      <c r="H65" s="224"/>
       <c r="I65" s="91" t="s">
         <v>44</v>
       </c>
       <c r="J65" s="92"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="230" t="s">
+      <c r="A66" s="225" t="s">
         <v>498</v>
       </c>
-      <c r="B66" s="230"/>
-      <c r="C66" s="230"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="230"/>
-      <c r="F66" s="230"/>
+      <c r="B66" s="225"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="225"/>
+      <c r="E66" s="225"/>
+      <c r="F66" s="225"/>
       <c r="G66" s="105"/>
       <c r="H66" s="105"/>
       <c r="I66" s="106"/>
@@ -10297,6 +10303,61 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="A57:J57"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="B65:H65"/>
@@ -10306,61 +10367,6 @@
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="B61:H61"/>
     <mergeCell ref="B62:H62"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10387,64 +10393,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="178" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="241" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="241" t="s">
         <v>559</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="235" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="173" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
@@ -10454,13 +10460,13 @@
       <c r="A6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="173" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="6" t="s">
         <v>244</v>
       </c>
@@ -10470,13 +10476,13 @@
       <c r="A7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="173" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="6" t="s">
         <v>151</v>
       </c>
@@ -10489,13 +10495,13 @@
       <c r="A8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="173" t="s">
         <v>564</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="6" t="s">
         <v>153</v>
       </c>
@@ -10508,13 +10514,13 @@
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="173" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="6" t="s">
         <v>155</v>
       </c>
@@ -10527,13 +10533,13 @@
       <c r="A10" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="173" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="6" t="s">
         <v>157</v>
       </c>
@@ -10543,13 +10549,13 @@
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="173" t="s">
         <v>567</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
@@ -10559,28 +10565,28 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="235" t="s">
+      <c r="A12" s="240" t="s">
         <v>568</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="173" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="6" t="s">
         <v>23</v>
       </c>
@@ -10590,13 +10596,13 @@
       <c r="A14" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="173" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="6" t="s">
         <v>25</v>
       </c>
@@ -10606,13 +10612,13 @@
       <c r="A15" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="173" t="s">
         <v>571</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="6" t="s">
         <v>195</v>
       </c>
@@ -10622,13 +10628,13 @@
       <c r="A16" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="173" t="s">
         <v>572</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
       <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
@@ -10638,13 +10644,13 @@
       <c r="A17" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="173" t="s">
         <v>573</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="6" t="s">
         <v>199</v>
       </c>
@@ -10654,13 +10660,13 @@
       <c r="A18" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="173" t="s">
         <v>574</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
       <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
@@ -10670,13 +10676,13 @@
       <c r="A19" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="173" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
@@ -10686,13 +10692,13 @@
       <c r="A20" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="173" t="s">
         <v>576</v>
       </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="6" t="s">
         <v>44</v>
       </c>
@@ -10702,13 +10708,13 @@
       <c r="A21" s="120">
         <v>16</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="237" t="s">
         <v>577</v>
       </c>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="237"/>
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
     </row>
@@ -10716,13 +10722,13 @@
       <c r="A22" s="120" t="s">
         <v>384</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="173" t="s">
         <v>578</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
       <c r="G22" s="6" t="s">
         <v>384</v>
       </c>
@@ -10732,13 +10738,13 @@
       <c r="A23" s="120" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
       <c r="G23" s="6" t="s">
         <v>388</v>
       </c>
@@ -10748,13 +10754,13 @@
       <c r="A24" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="173" t="s">
         <v>579</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
       <c r="G24" s="6" t="s">
         <v>49</v>
       </c>
@@ -10764,13 +10770,13 @@
       <c r="A25" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="173" t="s">
         <v>580</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="6" t="s">
         <v>51</v>
       </c>
@@ -10780,13 +10786,13 @@
       <c r="A26" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="173" t="s">
         <v>581</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
       <c r="G26" s="6" t="s">
         <v>53</v>
       </c>
@@ -10796,13 +10802,13 @@
       <c r="A27" s="120">
         <v>20</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="237" t="s">
         <v>582</v>
       </c>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="237"/>
       <c r="G27" s="6"/>
       <c r="H27" s="10"/>
     </row>
@@ -10810,13 +10816,13 @@
       <c r="A28" s="120" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="173" t="s">
         <v>584</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
       <c r="G28" s="6" t="s">
         <v>583</v>
       </c>
@@ -10826,13 +10832,13 @@
       <c r="A29" s="120" t="s">
         <v>585</v>
       </c>
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="173" t="s">
         <v>586</v>
       </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
       <c r="G29" s="6" t="s">
         <v>585</v>
       </c>
@@ -10842,13 +10848,13 @@
       <c r="A30" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="173" t="s">
         <v>587</v>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
       <c r="G30" s="6" t="s">
         <v>57</v>
       </c>
@@ -10858,13 +10864,13 @@
       <c r="A31" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="173" t="s">
         <v>588</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
       <c r="G31" s="6" t="s">
         <v>59</v>
       </c>
@@ -10874,13 +10880,13 @@
       <c r="A32" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="173" t="s">
         <v>589</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
       <c r="G32" s="6" t="s">
         <v>61</v>
       </c>
@@ -10890,13 +10896,13 @@
       <c r="A33" s="120">
         <v>24</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B33" s="237" t="s">
         <v>590</v>
       </c>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237"/>
+      <c r="F33" s="237"/>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
     </row>
@@ -10904,13 +10910,13 @@
       <c r="A34" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="173" t="s">
         <v>591</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
       <c r="G34" s="6" t="s">
         <v>214</v>
       </c>
@@ -10920,13 +10926,13 @@
       <c r="A35" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="173" t="s">
         <v>592</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
       <c r="G35" s="6" t="s">
         <v>216</v>
       </c>
@@ -10936,13 +10942,13 @@
       <c r="A36" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="173" t="s">
         <v>593</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
       <c r="G36" s="6" t="s">
         <v>238</v>
       </c>
@@ -10952,13 +10958,13 @@
       <c r="A37" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
       <c r="G37" s="6" t="s">
         <v>73</v>
       </c>
@@ -10968,13 +10974,13 @@
       <c r="A38" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="173" t="s">
         <v>595</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
       <c r="G38" s="6" t="s">
         <v>75</v>
       </c>
@@ -10987,13 +10993,13 @@
       <c r="A39" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
       <c r="G39" s="6" t="s">
         <v>77</v>
       </c>
@@ -11003,13 +11009,13 @@
       <c r="A40" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="173" t="s">
         <v>596</v>
       </c>
-      <c r="C40" s="174"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
       <c r="G40" s="6" t="s">
         <v>81</v>
       </c>
@@ -11022,13 +11028,13 @@
       <c r="A41" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B41" s="173" t="s">
         <v>597</v>
       </c>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
       <c r="G41" s="6" t="s">
         <v>83</v>
       </c>
@@ -11041,13 +11047,13 @@
       <c r="A42" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="173" t="s">
         <v>598</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
       <c r="G42" s="6" t="s">
         <v>85</v>
       </c>
@@ -11057,13 +11063,13 @@
       <c r="A43" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="173" t="s">
         <v>599</v>
       </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="174"/>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
       <c r="G43" s="6" t="s">
         <v>87</v>
       </c>
@@ -11074,51 +11080,51 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
-      <c r="B44" s="236" t="s">
+      <c r="B44" s="237" t="s">
         <v>600</v>
       </c>
-      <c r="C44" s="236"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="236"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="237"/>
+      <c r="E44" s="237"/>
+      <c r="F44" s="237"/>
       <c r="G44" s="124"/>
       <c r="H44" s="125"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
-      <c r="B45" s="236" t="s">
+      <c r="B45" s="237" t="s">
         <v>601</v>
       </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
       <c r="G45" s="124"/>
       <c r="H45" s="125"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="126"/>
-      <c r="B46" s="237" t="s">
+      <c r="B46" s="238" t="s">
         <v>602</v>
       </c>
-      <c r="C46" s="237"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="237"/>
-      <c r="F46" s="237"/>
+      <c r="C46" s="238"/>
+      <c r="D46" s="238"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="238"/>
       <c r="G46" s="127"/>
       <c r="H46" s="128"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="238" t="s">
+      <c r="A48" s="239" t="s">
         <v>603</v>
       </c>
-      <c r="B48" s="238"/>
-      <c r="C48" s="238"/>
-      <c r="D48" s="238"/>
-      <c r="E48" s="238"/>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="238"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="239"/>
+      <c r="D48" s="239"/>
+      <c r="E48" s="239"/>
+      <c r="F48" s="239"/>
+      <c r="G48" s="239"/>
+      <c r="H48" s="239"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="129" t="s">
@@ -11136,13 +11142,13 @@
       <c r="A50" s="120">
         <v>33</v>
       </c>
-      <c r="B50" s="236" t="s">
+      <c r="B50" s="237" t="s">
         <v>605</v>
       </c>
-      <c r="C50" s="236"/>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="236"/>
+      <c r="C50" s="237"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
       <c r="G50" s="124"/>
       <c r="H50" s="125"/>
     </row>
@@ -11150,13 +11156,13 @@
       <c r="A51" s="120">
         <v>34</v>
       </c>
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="237" t="s">
         <v>606</v>
       </c>
-      <c r="C51" s="236"/>
-      <c r="D51" s="236"/>
-      <c r="E51" s="236"/>
-      <c r="F51" s="236"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="237"/>
+      <c r="E51" s="237"/>
+      <c r="F51" s="237"/>
       <c r="G51" s="124"/>
       <c r="H51" s="125"/>
     </row>
@@ -11164,13 +11170,13 @@
       <c r="A52" s="120" t="s">
         <v>423</v>
       </c>
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="173" t="s">
         <v>607</v>
       </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="173"/>
       <c r="G52" s="6" t="s">
         <v>423</v>
       </c>
@@ -11180,13 +11186,13 @@
       <c r="A53" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="173" t="s">
         <v>608</v>
       </c>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="174"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
       <c r="G53" s="6" t="s">
         <v>97</v>
       </c>
@@ -11196,13 +11202,13 @@
       <c r="A54" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="173" t="s">
         <v>609</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
       <c r="G54" s="6" t="s">
         <v>100</v>
       </c>
@@ -11212,13 +11218,13 @@
       <c r="A55" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="174" t="s">
+      <c r="B55" s="173" t="s">
         <v>610</v>
       </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
       <c r="G55" s="6" t="s">
         <v>102</v>
       </c>
@@ -11228,13 +11234,13 @@
       <c r="A56" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="173" t="s">
         <v>611</v>
       </c>
-      <c r="C56" s="174"/>
-      <c r="D56" s="174"/>
-      <c r="E56" s="174"/>
-      <c r="F56" s="174"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="173"/>
       <c r="G56" s="6" t="s">
         <v>428</v>
       </c>
@@ -11244,13 +11250,13 @@
       <c r="A57" s="120" t="s">
         <v>430</v>
       </c>
-      <c r="B57" s="174" t="s">
+      <c r="B57" s="173" t="s">
         <v>612</v>
       </c>
-      <c r="C57" s="174"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="174"/>
-      <c r="F57" s="174"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="173"/>
+      <c r="F57" s="173"/>
       <c r="G57" s="6" t="s">
         <v>430</v>
       </c>
@@ -11263,13 +11269,13 @@
       <c r="A58" s="120" t="s">
         <v>613</v>
       </c>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="173" t="s">
         <v>614</v>
       </c>
-      <c r="C58" s="174"/>
-      <c r="D58" s="174"/>
-      <c r="E58" s="174"/>
-      <c r="F58" s="174"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="173"/>
+      <c r="F58" s="173"/>
       <c r="G58" s="6" t="s">
         <v>613</v>
       </c>
@@ -11279,13 +11285,13 @@
       <c r="A59" s="120" t="s">
         <v>615</v>
       </c>
-      <c r="B59" s="174" t="s">
+      <c r="B59" s="173" t="s">
         <v>616</v>
       </c>
-      <c r="C59" s="174"/>
-      <c r="D59" s="174"/>
-      <c r="E59" s="174"/>
-      <c r="F59" s="174"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
       <c r="G59" s="6" t="s">
         <v>615</v>
       </c>
@@ -11295,16 +11301,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="239" t="s">
+      <c r="A60" s="236" t="s">
         <v>617</v>
       </c>
-      <c r="B60" s="239"/>
-      <c r="C60" s="239"/>
-      <c r="D60" s="239"/>
-      <c r="E60" s="239"/>
-      <c r="F60" s="239"/>
-      <c r="G60" s="239"/>
-      <c r="H60" s="239"/>
+      <c r="B60" s="236"/>
+      <c r="C60" s="236"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="236"/>
+      <c r="F60" s="236"/>
+      <c r="G60" s="236"/>
+      <c r="H60" s="236"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="132"/>
@@ -11343,118 +11349,118 @@
       <c r="H63" s="135"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="234" t="s">
+      <c r="A65" s="235" t="s">
         <v>621</v>
       </c>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
+      <c r="B65" s="235"/>
+      <c r="C65" s="235"/>
+      <c r="D65" s="235"/>
+      <c r="E65" s="235"/>
+      <c r="F65" s="235"/>
+      <c r="G65" s="235"/>
+      <c r="H65" s="235"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="240"/>
-      <c r="B66" s="240"/>
-      <c r="C66" s="240"/>
-      <c r="D66" s="240"/>
-      <c r="E66" s="240"/>
-      <c r="F66" s="240"/>
-      <c r="G66" s="240"/>
+      <c r="A66" s="233"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="233"/>
+      <c r="D66" s="233"/>
+      <c r="E66" s="233"/>
+      <c r="F66" s="233"/>
+      <c r="G66" s="233"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="240"/>
-      <c r="B67" s="240"/>
-      <c r="C67" s="240"/>
-      <c r="D67" s="240"/>
-      <c r="E67" s="240"/>
-      <c r="F67" s="240"/>
-      <c r="G67" s="240"/>
+      <c r="A67" s="233"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="233"/>
+      <c r="D67" s="233"/>
+      <c r="E67" s="233"/>
+      <c r="F67" s="233"/>
+      <c r="G67" s="233"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="240"/>
-      <c r="B68" s="240"/>
-      <c r="C68" s="240"/>
-      <c r="D68" s="240"/>
-      <c r="E68" s="240"/>
-      <c r="F68" s="240"/>
-      <c r="G68" s="240"/>
+      <c r="A68" s="233"/>
+      <c r="B68" s="233"/>
+      <c r="C68" s="233"/>
+      <c r="D68" s="233"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="240"/>
-      <c r="B69" s="240"/>
-      <c r="C69" s="240"/>
-      <c r="D69" s="240"/>
-      <c r="E69" s="240"/>
-      <c r="F69" s="240"/>
-      <c r="G69" s="240"/>
+      <c r="A69" s="233"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="233"/>
+      <c r="D69" s="233"/>
+      <c r="E69" s="233"/>
+      <c r="F69" s="233"/>
+      <c r="G69" s="233"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="240"/>
-      <c r="B70" s="240"/>
-      <c r="C70" s="240"/>
-      <c r="D70" s="240"/>
-      <c r="E70" s="240"/>
-      <c r="F70" s="240"/>
-      <c r="G70" s="240"/>
+      <c r="A70" s="233"/>
+      <c r="B70" s="233"/>
+      <c r="C70" s="233"/>
+      <c r="D70" s="233"/>
+      <c r="E70" s="233"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="233"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="240"/>
-      <c r="B71" s="240"/>
-      <c r="C71" s="240"/>
-      <c r="D71" s="240"/>
-      <c r="E71" s="240"/>
-      <c r="F71" s="240"/>
-      <c r="G71" s="240"/>
+      <c r="A71" s="233"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="233"/>
+      <c r="E71" s="233"/>
+      <c r="F71" s="233"/>
+      <c r="G71" s="233"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="240"/>
-      <c r="B72" s="240"/>
-      <c r="C72" s="240"/>
-      <c r="D72" s="240"/>
-      <c r="E72" s="240"/>
-      <c r="F72" s="240"/>
-      <c r="G72" s="240"/>
+      <c r="A72" s="233"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="233"/>
+      <c r="D72" s="233"/>
+      <c r="E72" s="233"/>
+      <c r="F72" s="233"/>
+      <c r="G72" s="233"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="240"/>
-      <c r="B73" s="240"/>
-      <c r="C73" s="240"/>
-      <c r="D73" s="240"/>
-      <c r="E73" s="240"/>
-      <c r="F73" s="240"/>
-      <c r="G73" s="240"/>
+      <c r="A73" s="233"/>
+      <c r="B73" s="233"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="233"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="233"/>
+      <c r="G73" s="233"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="242"/>
-      <c r="B74" s="242"/>
-      <c r="C74" s="242"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="242"/>
-      <c r="F74" s="242"/>
-      <c r="G74" s="242"/>
+      <c r="A74" s="234"/>
+      <c r="B74" s="234"/>
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+      <c r="G74" s="234"/>
       <c r="H74" s="136"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B75" s="241" t="s">
+      <c r="B75" s="232" t="s">
         <v>623</v>
       </c>
-      <c r="C75" s="241"/>
-      <c r="D75" s="241"/>
-      <c r="E75" s="241"/>
-      <c r="F75" s="241"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="232"/>
+      <c r="E75" s="232"/>
+      <c r="F75" s="232"/>
       <c r="G75" s="17" t="s">
         <v>622</v>
       </c>
@@ -11465,77 +11471,77 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="A70:G70"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A72:G72"/>
     <mergeCell ref="A73:G73"/>
     <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11551,7 +11557,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B44" sqref="B44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11564,52 +11570,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="255" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="250" t="s">
         <v>625</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
     </row>
     <row r="5" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="256" t="s">
         <v>626</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
     </row>
     <row r="6" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="137" t="s">
         <v>627</v>
       </c>
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="257" t="s">
         <v>628</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="247" t="s">
+      <c r="A8" s="246" t="s">
         <v>629</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="138" t="s">
@@ -11629,23 +11635,23 @@
       <c r="A10" s="142" t="s">
         <v>632</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="253" t="s">
         <v>633</v>
       </c>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
       <c r="E10" s="143" t="s">
         <v>632</v>
       </c>
       <c r="F10" s="110"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="249" t="s">
+      <c r="A11" s="254" t="s">
         <v>634</v>
       </c>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="144"/>
       <c r="F11" s="145"/>
     </row>
@@ -11653,11 +11659,11 @@
       <c r="A12" s="146" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="249" t="s">
         <v>635</v>
       </c>
-      <c r="C12" s="250"/>
-      <c r="D12" s="250"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
       <c r="E12" s="143" t="s">
         <v>244</v>
       </c>
@@ -11670,11 +11676,11 @@
       <c r="A13" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="249" t="s">
         <v>636</v>
       </c>
-      <c r="C13" s="250"/>
-      <c r="D13" s="250"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="143" t="s">
         <v>151</v>
       </c>
@@ -11687,11 +11693,11 @@
       <c r="A14" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="250" t="s">
+      <c r="B14" s="249" t="s">
         <v>637</v>
       </c>
-      <c r="C14" s="250"/>
-      <c r="D14" s="250"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="143" t="s">
         <v>11</v>
       </c>
@@ -11701,12 +11707,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="251" t="s">
+      <c r="A15" s="252" t="s">
         <v>638</v>
       </c>
-      <c r="B15" s="251"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
       <c r="E15" s="144"/>
       <c r="F15" s="145"/>
     </row>
@@ -11714,11 +11720,11 @@
       <c r="A16" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="250" t="s">
+      <c r="B16" s="249" t="s">
         <v>639</v>
       </c>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
       <c r="E16" s="143" t="s">
         <v>13</v>
       </c>
@@ -11731,11 +11737,11 @@
       <c r="A17" s="146" t="s">
         <v>318</v>
       </c>
-      <c r="B17" s="250" t="s">
+      <c r="B17" s="249" t="s">
         <v>640</v>
       </c>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
       <c r="E17" s="143" t="s">
         <v>318</v>
       </c>
@@ -11745,12 +11751,12 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="251" t="s">
+      <c r="A18" s="252" t="s">
         <v>641</v>
       </c>
-      <c r="B18" s="251"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="144"/>
       <c r="F18" s="145"/>
     </row>
@@ -11775,11 +11781,11 @@
       <c r="A20" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="250" t="s">
+      <c r="B20" s="249" t="s">
         <v>643</v>
       </c>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
       <c r="E20" s="143" t="s">
         <v>17</v>
       </c>
@@ -11792,11 +11798,11 @@
       <c r="A21" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="250" t="s">
+      <c r="B21" s="249" t="s">
         <v>644</v>
       </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
       <c r="E21" s="143" t="s">
         <v>157</v>
       </c>
@@ -11809,11 +11815,11 @@
       <c r="A22" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="250" t="s">
+      <c r="B22" s="249" t="s">
         <v>645</v>
       </c>
-      <c r="C22" s="250"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
       <c r="E22" s="143" t="s">
         <v>21</v>
       </c>
@@ -11822,12 +11828,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="252" t="s">
         <v>646</v>
       </c>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
       <c r="E23" s="144"/>
       <c r="F23" s="145"/>
     </row>
@@ -11880,11 +11886,11 @@
       <c r="A27" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="250" t="s">
+      <c r="B27" s="249" t="s">
         <v>650</v>
       </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="143" t="s">
         <v>167</v>
       </c>
@@ -11897,11 +11903,11 @@
       <c r="A28" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="250" t="s">
+      <c r="B28" s="249" t="s">
         <v>651</v>
       </c>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="143" t="s">
         <v>25</v>
       </c>
@@ -11914,11 +11920,11 @@
       <c r="A29" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="250" t="s">
+      <c r="B29" s="249" t="s">
         <v>652</v>
       </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="143" t="s">
         <v>195</v>
       </c>
@@ -11931,11 +11937,11 @@
       <c r="A30" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="250" t="s">
+      <c r="B30" s="249" t="s">
         <v>653</v>
       </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
       <c r="E30" s="143" t="s">
         <v>29</v>
       </c>
@@ -11948,11 +11954,11 @@
       <c r="A31" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="249" t="s">
         <v>654</v>
       </c>
-      <c r="C31" s="250"/>
-      <c r="D31" s="250"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
       <c r="E31" s="143" t="s">
         <v>199</v>
       </c>
@@ -11979,40 +11985,40 @@
       <c r="F32" s="156"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="244" t="s">
+      <c r="A34" s="250" t="s">
         <v>656</v>
       </c>
-      <c r="B34" s="244"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
+      <c r="B34" s="250"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="252" t="s">
+      <c r="A35" s="251" t="s">
         <v>657</v>
       </c>
-      <c r="B35" s="252"/>
-      <c r="C35" s="252"/>
-      <c r="D35" s="252"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="251"/>
+      <c r="D35" s="251"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="247" t="s">
+      <c r="A36" s="246" t="s">
         <v>658</v>
       </c>
-      <c r="B36" s="247"/>
-      <c r="C36" s="247"/>
-      <c r="D36" s="247"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="246"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="254" t="s">
+      <c r="B38" s="244" t="s">
         <v>659</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="244"/>
       <c r="E38" s="141" t="s">
         <v>42</v>
       </c>
@@ -12024,45 +12030,45 @@
       <c r="A39" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="256" t="s">
+      <c r="B39" s="247" t="s">
         <v>660</v>
       </c>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="153" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="257" t="s">
+      <c r="A40" s="248" t="s">
         <v>661</v>
       </c>
-      <c r="B40" s="257"/>
-      <c r="C40" s="257"/>
-      <c r="D40" s="257"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
       <c r="E40" s="157"/>
       <c r="F40" s="158"/>
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="243" t="s">
         <v>662</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="243"/>
       <c r="E41" s="157"/>
       <c r="F41" s="158"/>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="s">
+      <c r="A42" s="243" t="s">
         <v>663</v>
       </c>
-      <c r="B42" s="253"/>
-      <c r="C42" s="253"/>
-      <c r="D42" s="253"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="243"/>
+      <c r="D42" s="243"/>
       <c r="E42" s="157"/>
       <c r="F42" s="158"/>
       <c r="G42" s="23"/>
@@ -12071,11 +12077,11 @@
       <c r="A43" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="244" t="s">
         <v>664</v>
       </c>
-      <c r="C43" s="254"/>
-      <c r="D43" s="254"/>
+      <c r="C43" s="244"/>
+      <c r="D43" s="244"/>
       <c r="E43" s="141" t="s">
         <v>47</v>
       </c>
@@ -12088,11 +12094,11 @@
       <c r="A44" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="255" t="s">
+      <c r="B44" s="245" t="s">
         <v>665</v>
       </c>
-      <c r="C44" s="255"/>
-      <c r="D44" s="255"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
       <c r="E44" s="153" t="s">
         <v>49</v>
       </c>
@@ -12100,6 +12106,31 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -12108,31 +12139,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
